--- a/04.산출물 제출/02.요구 분석서/변수명, 파일명, 디렉토리.xlsx
+++ b/04.산출물 제출/02.요구 분석서/변수명, 파일명, 디렉토리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\98.팀프로젝트\02. 2차프로젝트\second_team_project\04.산출물 제출\02.요구 분석서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E56689A-E90F-4331-B4D0-BFBBFD40BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFFBE4E-AE9A-4AA9-8686-CC0D671699F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{D211D896-526D-4CD9-AE3F-BDCF2B37CAFF}"/>
+    <workbookView xWindow="5055" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{D211D896-526D-4CD9-AE3F-BDCF2B37CAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="공통" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="292">
   <si>
     <t>공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,22 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>findid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findpassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findPW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>student</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,26 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CommonMainPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StudentMainPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainCOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainSTU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>professor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,18 +188,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a school register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaScript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,14 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SchoolRegister Serach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Univ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prof</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,47 +432,778 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adrres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indexDAO.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indextable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppw</t>
+    <t>stu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adrress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOARTSpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOARTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과목 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의계획서 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업시간표 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결 확인 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuSubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강/성적조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuGrdMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청 현황조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course registration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradesmain page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School Register Serach page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student Main page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Main page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuCouReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuCouRegAppCk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Info Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myInfoModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Registration page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Registraion Application Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor Main page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance Management List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석관리 목록페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석관리 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attdMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuAttdCk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance Check page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance Check List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결 확인 목록페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuAttdCkList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance Management page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attdMgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적관리 목록페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grades Management List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grdMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적관리 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grades Management page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grdMgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Info page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice View page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 글쓰기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Write page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 수정 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 상세 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Modify page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couSubj</t>
+  </si>
+  <si>
+    <t>couSubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Subject List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 목록 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수 강의과목 목록페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의계획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Management List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보 수정 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Info modify page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfoModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보 추가 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User addition page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profAttdMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profAttdMgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profGrdMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profGrdMgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의관리 목록 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Management List page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의계획서 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curriculum Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculumModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의계획서 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curriculum Addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculumAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Registration Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couRegMgmtList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청 관리 목록페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청 관리 등록페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course Registration Addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couRegAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comMainController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Main page Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호찾기 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Id Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findIdController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Password Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPwController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기 DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통메인페이지 DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통메인페이지 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호찾기 DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Main page DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Id DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Password DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comMainDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findIdDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPwDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(jsp파일명)+Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(jsp파일명)+DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a schoolcollege register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pRRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor ID Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sBirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pBirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sGender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pGender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sUniv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Univ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pUniv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sFaculty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pFaculty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sMajor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMajor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임용일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appointment date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointmentDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +1211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +1241,20 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -587,7 +1264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -595,13 +1272,289 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,10 +1570,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,18 +1986,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AFFAA5-7A7F-4B96-9B2D-814EAED860FF}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
@@ -959,147 +2009,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24"/>
+      <c r="C8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24"/>
+      <c r="C11" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="24"/>
+      <c r="C14" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -1108,34 +2178,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62819A2-7F8B-4DEC-81B0-4603E35047FA}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24"/>
+      <c r="C18" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1143,34 +2425,212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F07453-7D03-4A1C-B850-BB4374F25139}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="24"/>
+      <c r="C14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="B4:B14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1178,34 +2638,281 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF3E41-B01B-4D2D-B0AC-6B3A444635A0}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="23"/>
+      <c r="C20" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="24"/>
+      <c r="C21" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B4:B21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1213,434 +2920,703 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD9C442-F126-4F66-A03C-F3C5726EA8D5}">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
+      <c r="B13" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>108</v>
+      <c r="B14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>124</v>
+      <c r="B17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>99</v>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>76</v>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>85</v>
+        <v>283</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>71</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/04.산출물 제출/02.요구 분석서/변수명, 파일명, 디렉토리.xlsx
+++ b/04.산출물 제출/02.요구 분석서/변수명, 파일명, 디렉토리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\98.팀프로젝트\02. 2차프로젝트\second_team_project\04.산출물 제출\02.요구 분석서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFFBE4E-AE9A-4AA9-8686-CC0D671699F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C98C0A-17C5-46F0-BDE0-65F2986986FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{D211D896-526D-4CD9-AE3F-BDCF2B37CAFF}"/>
+    <workbookView xWindow="5205" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{D211D896-526D-4CD9-AE3F-BDCF2B37CAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="공통" sheetId="1" r:id="rId1"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입학일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,18 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제적일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>completion date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,10 +1151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Univ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pUniv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1204,6 +1180,30 @@
   </si>
   <si>
     <t>appointmentDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,6 +1621,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,46 +1660,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,7 +1989,7 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,141 +2027,141 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
-        <v>237</v>
+      <c r="B6" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2211,206 +2211,206 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
-        <v>237</v>
+      <c r="B4" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+      <c r="C14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="34"/>
+      <c r="C18" s="29" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="D18" s="30" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>143</v>
+      <c r="E18" s="31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2445,7 +2445,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2457,158 +2457,158 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
-        <v>237</v>
+      <c r="B4" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>218</v>
+      <c r="E9" s="27" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="D12" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>148</v>
+      <c r="D13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
-      <c r="C14" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>143</v>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2670,242 +2670,242 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
-        <v>237</v>
+      <c r="B4" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="E6" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+      <c r="C14" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>161</v>
+      <c r="E14" s="27" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>168</v>
+      <c r="B15" s="33"/>
+      <c r="C15" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="33" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="D19" s="26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="32" t="s">
+      <c r="E19" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="33" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E20" s="27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="33" t="s">
+    <row r="21" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="34"/>
+      <c r="C21" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="D21" s="30" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
-      <c r="C21" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="C23" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2922,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD9C442-F126-4F66-A03C-F3C5726EA8D5}">
   <dimension ref="B2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -3050,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -3067,30 +3067,30 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -3098,10 +3098,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -3113,25 +3113,25 @@
         <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -3145,10 +3145,10 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -3162,10 +3162,10 @@
         <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -3179,10 +3179,10 @@
         <v>49</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -3196,10 +3196,10 @@
         <v>51</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -3213,10 +3213,10 @@
         <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -3241,10 +3241,10 @@
         <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -3255,10 +3255,10 @@
         <v>57</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -3269,13 +3269,13 @@
         <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -3289,10 +3289,10 @@
         <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -3306,10 +3306,10 @@
         <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -3323,7 +3323,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -3334,293 +3334,294 @@
         <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>